--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lgals1-Cd69.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lgals1-Cd69.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>47.837127</v>
+        <v>36.02515</v>
       </c>
       <c r="H2">
-        <v>143.511381</v>
+        <v>108.07545</v>
       </c>
       <c r="I2">
-        <v>0.05107837591710958</v>
+        <v>0.06133193329924569</v>
       </c>
       <c r="J2">
-        <v>0.05107837591710957</v>
+        <v>0.0613319332992457</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +558,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1059273333333333</v>
+        <v>0.1205896666666667</v>
       </c>
       <c r="N2">
-        <v>0.317782</v>
+        <v>0.361769</v>
       </c>
       <c r="O2">
-        <v>0.005178699957631011</v>
+        <v>0.003738558763786432</v>
       </c>
       <c r="P2">
-        <v>0.005178699957631011</v>
+        <v>0.003738558763786432</v>
       </c>
       <c r="Q2">
-        <v>5.067259297438</v>
+        <v>4.344260830116667</v>
       </c>
       <c r="R2">
-        <v>45.605333676942</v>
+        <v>39.09834747105</v>
       </c>
       <c r="S2">
-        <v>0.0002645195831977963</v>
+        <v>0.0002292930367358599</v>
       </c>
       <c r="T2">
-        <v>0.0002645195831977962</v>
+        <v>0.0002292930367358599</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>47.837127</v>
+        <v>36.02515</v>
       </c>
       <c r="H3">
-        <v>143.511381</v>
+        <v>108.07545</v>
       </c>
       <c r="I3">
-        <v>0.05107837591710958</v>
+        <v>0.06133193329924569</v>
       </c>
       <c r="J3">
-        <v>0.05107837591710957</v>
+        <v>0.0613319332992457</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,22 +626,22 @@
         <v>0.165564</v>
       </c>
       <c r="O3">
-        <v>0.002698095800848445</v>
+        <v>0.001710955729118683</v>
       </c>
       <c r="P3">
-        <v>0.002698095800848445</v>
+        <v>0.001710955729118683</v>
       </c>
       <c r="Q3">
-        <v>2.640035364876</v>
+        <v>1.9881559782</v>
       </c>
       <c r="R3">
-        <v>23.760318283884</v>
+        <v>17.8934038038</v>
       </c>
       <c r="S3">
-        <v>0.0001378143515761117</v>
+        <v>0.0001049362226562693</v>
       </c>
       <c r="T3">
-        <v>0.0001378143515761117</v>
+        <v>0.0001049362226562694</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>47.837127</v>
+        <v>36.02515</v>
       </c>
       <c r="H4">
-        <v>143.511381</v>
+        <v>108.07545</v>
       </c>
       <c r="I4">
-        <v>0.05107837591710958</v>
+        <v>0.06133193329924569</v>
       </c>
       <c r="J4">
-        <v>0.05107837591710957</v>
+        <v>0.0613319332992457</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.495919333333333</v>
+        <v>22.44608266666667</v>
       </c>
       <c r="N4">
-        <v>22.487758</v>
+        <v>67.33824799999999</v>
       </c>
       <c r="O4">
-        <v>0.3664693135602911</v>
+        <v>0.6958805126985015</v>
       </c>
       <c r="P4">
-        <v>0.3664693135602911</v>
+        <v>0.6958805126985015</v>
       </c>
       <c r="Q4">
-        <v>358.583245130422</v>
+        <v>808.6234949790667</v>
       </c>
       <c r="R4">
-        <v>3227.249206173798</v>
+        <v>7277.6114548116</v>
       </c>
       <c r="S4">
-        <v>0.01871865736011765</v>
+        <v>0.04267969718906939</v>
       </c>
       <c r="T4">
-        <v>0.01871865736011765</v>
+        <v>0.04267969718906939</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>47.837127</v>
+        <v>36.02515</v>
       </c>
       <c r="H5">
-        <v>143.511381</v>
+        <v>108.07545</v>
       </c>
       <c r="I5">
-        <v>0.05107837591710958</v>
+        <v>0.06133193329924569</v>
       </c>
       <c r="J5">
-        <v>0.05107837591710957</v>
+        <v>0.0613319332992457</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.09296133333333334</v>
+        <v>0.104803</v>
       </c>
       <c r="N5">
-        <v>0.278884</v>
+        <v>0.314409</v>
       </c>
       <c r="O5">
-        <v>0.004544802912008758</v>
+        <v>0.003249135559883043</v>
       </c>
       <c r="P5">
-        <v>0.004544802912008757</v>
+        <v>0.003249135559883043</v>
       </c>
       <c r="Q5">
-        <v>4.447003108756</v>
+        <v>3.775543795450001</v>
       </c>
       <c r="R5">
-        <v>40.023027978804</v>
+        <v>33.97989415905001</v>
       </c>
       <c r="S5">
-        <v>0.0002321411516087577</v>
+        <v>0.0001992757654389541</v>
       </c>
       <c r="T5">
-        <v>0.0002321411516087576</v>
+        <v>0.0001992757654389541</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>47.837127</v>
+        <v>36.02515</v>
       </c>
       <c r="H6">
-        <v>143.511381</v>
+        <v>108.07545</v>
       </c>
       <c r="I6">
-        <v>0.05107837591710958</v>
+        <v>0.06133193329924569</v>
       </c>
       <c r="J6">
-        <v>0.05107837591710957</v>
+        <v>0.0613319332992457</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12.70442966666667</v>
+        <v>9.528993</v>
       </c>
       <c r="N6">
-        <v>38.113289</v>
+        <v>28.586979</v>
       </c>
       <c r="O6">
-        <v>0.6211090877692208</v>
+        <v>0.2954208372487103</v>
       </c>
       <c r="P6">
-        <v>0.6211090877692207</v>
+        <v>0.2954208372487104</v>
       </c>
       <c r="Q6">
-        <v>607.743415426901</v>
+        <v>343.28340217395</v>
       </c>
       <c r="R6">
-        <v>5469.69073884211</v>
+        <v>3089.55061956555</v>
       </c>
       <c r="S6">
-        <v>0.03172524347060927</v>
+        <v>0.01811873108534522</v>
       </c>
       <c r="T6">
-        <v>0.03172524347060926</v>
+        <v>0.01811873108534522</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,13 +853,13 @@
         <v>255.905248</v>
       </c>
       <c r="H7">
-        <v>767.7157440000001</v>
+        <v>767.715744</v>
       </c>
       <c r="I7">
-        <v>0.2732443454747012</v>
+        <v>0.4356724011215199</v>
       </c>
       <c r="J7">
-        <v>0.2732443454747012</v>
+        <v>0.43567240112152</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,28 +868,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.1059273333333333</v>
+        <v>0.1205896666666667</v>
       </c>
       <c r="N7">
-        <v>0.317782</v>
+        <v>0.361769</v>
       </c>
       <c r="O7">
-        <v>0.005178699957631011</v>
+        <v>0.003738558763786432</v>
       </c>
       <c r="P7">
-        <v>0.005178699957631011</v>
+        <v>0.003738558763786432</v>
       </c>
       <c r="Q7">
-        <v>27.10736050664534</v>
+        <v>30.85952855457067</v>
       </c>
       <c r="R7">
-        <v>243.966244559808</v>
+        <v>277.735756991136</v>
       </c>
       <c r="S7">
-        <v>0.001415050480332749</v>
+        <v>0.001628786873352736</v>
       </c>
       <c r="T7">
-        <v>0.001415050480332748</v>
+        <v>0.001628786873352737</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,13 +915,13 @@
         <v>255.905248</v>
       </c>
       <c r="H8">
-        <v>767.7157440000001</v>
+        <v>767.715744</v>
       </c>
       <c r="I8">
-        <v>0.2732443454747012</v>
+        <v>0.4356724011215199</v>
       </c>
       <c r="J8">
-        <v>0.2732443454747012</v>
+        <v>0.43567240112152</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -936,10 +936,10 @@
         <v>0.165564</v>
       </c>
       <c r="O8">
-        <v>0.002698095800848445</v>
+        <v>0.001710955729118683</v>
       </c>
       <c r="P8">
-        <v>0.002698095800848445</v>
+        <v>0.001710955729118683</v>
       </c>
       <c r="Q8">
         <v>14.122898826624</v>
@@ -948,10 +948,10 @@
         <v>127.106089439616</v>
       </c>
       <c r="S8">
-        <v>0.0007372394211308733</v>
+        <v>0.0007454161907177574</v>
       </c>
       <c r="T8">
-        <v>0.000737239421130873</v>
+        <v>0.0007454161907177576</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,13 +977,13 @@
         <v>255.905248</v>
       </c>
       <c r="H9">
-        <v>767.7157440000001</v>
+        <v>767.715744</v>
       </c>
       <c r="I9">
-        <v>0.2732443454747012</v>
+        <v>0.4356724011215199</v>
       </c>
       <c r="J9">
-        <v>0.2732443454747012</v>
+        <v>0.43567240112152</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.495919333333333</v>
+        <v>22.44608266666667</v>
       </c>
       <c r="N9">
-        <v>22.487758</v>
+        <v>67.33824799999999</v>
       </c>
       <c r="O9">
-        <v>0.3664693135602911</v>
+        <v>0.6958805126985015</v>
       </c>
       <c r="P9">
-        <v>0.3664693135602911</v>
+        <v>0.6958805126985015</v>
       </c>
       <c r="Q9">
-        <v>1918.245095984661</v>
+        <v>5744.070351441835</v>
       </c>
       <c r="R9">
-        <v>17264.20586386195</v>
+        <v>51696.6331629765</v>
       </c>
       <c r="S9">
-        <v>0.1001356677203448</v>
+        <v>0.3031759338610305</v>
       </c>
       <c r="T9">
-        <v>0.1001356677203448</v>
+        <v>0.3031759338610305</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,43 +1039,43 @@
         <v>255.905248</v>
       </c>
       <c r="H10">
-        <v>767.7157440000001</v>
+        <v>767.715744</v>
       </c>
       <c r="I10">
-        <v>0.2732443454747012</v>
+        <v>0.4356724011215199</v>
       </c>
       <c r="J10">
-        <v>0.2732443454747012</v>
+        <v>0.43567240112152</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.09296133333333334</v>
+        <v>0.104803</v>
       </c>
       <c r="N10">
-        <v>0.278884</v>
+        <v>0.314409</v>
       </c>
       <c r="O10">
-        <v>0.004544802912008758</v>
+        <v>0.003249135559883043</v>
       </c>
       <c r="P10">
-        <v>0.004544802912008757</v>
+        <v>0.003249135559883043</v>
       </c>
       <c r="Q10">
-        <v>23.78929306107734</v>
+        <v>26.819637706144</v>
       </c>
       <c r="R10">
-        <v>214.103637549696</v>
+        <v>241.376739355296</v>
       </c>
       <c r="S10">
-        <v>0.001241841697003349</v>
+        <v>0.001415558690943559</v>
       </c>
       <c r="T10">
-        <v>0.001241841697003349</v>
+        <v>0.00141555869094356</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,13 +1101,13 @@
         <v>255.905248</v>
       </c>
       <c r="H11">
-        <v>767.7157440000001</v>
+        <v>767.715744</v>
       </c>
       <c r="I11">
-        <v>0.2732443454747012</v>
+        <v>0.4356724011215199</v>
       </c>
       <c r="J11">
-        <v>0.2732443454747012</v>
+        <v>0.43567240112152</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>12.70442966666667</v>
+        <v>9.528993</v>
       </c>
       <c r="N11">
-        <v>38.113289</v>
+        <v>28.586979</v>
       </c>
       <c r="O11">
-        <v>0.6211090877692208</v>
+        <v>0.2954208372487103</v>
       </c>
       <c r="P11">
-        <v>0.6211090877692207</v>
+        <v>0.2954208372487104</v>
       </c>
       <c r="Q11">
-        <v>3251.130224546891</v>
+        <v>2438.519316855264</v>
       </c>
       <c r="R11">
-        <v>29260.17202092202</v>
+        <v>21946.67385169737</v>
       </c>
       <c r="S11">
-        <v>0.1697145461558895</v>
+        <v>0.1287067055054754</v>
       </c>
       <c r="T11">
-        <v>0.1697145461558894</v>
+        <v>0.1287067055054754</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>295.7629596666666</v>
+        <v>78.61383033333333</v>
       </c>
       <c r="H12">
-        <v>887.288879</v>
+        <v>235.841491</v>
       </c>
       <c r="I12">
-        <v>0.315802653370277</v>
+        <v>0.1338381158274765</v>
       </c>
       <c r="J12">
-        <v>0.315802653370277</v>
+        <v>0.1338381158274766</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1178,28 +1178,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.1059273333333333</v>
+        <v>0.1205896666666667</v>
       </c>
       <c r="N12">
-        <v>0.317782</v>
+        <v>0.361769</v>
       </c>
       <c r="O12">
-        <v>0.005178699957631011</v>
+        <v>0.003738558763786432</v>
       </c>
       <c r="P12">
-        <v>0.005178699957631011</v>
+        <v>0.003738558763786432</v>
       </c>
       <c r="Q12">
-        <v>31.32938161626422</v>
+        <v>9.480015595286554</v>
       </c>
       <c r="R12">
-        <v>281.964434546378</v>
+        <v>85.32014035757899</v>
       </c>
       <c r="S12">
-        <v>0.001635447187628414</v>
+        <v>0.000500361660855476</v>
       </c>
       <c r="T12">
-        <v>0.001635447187628414</v>
+        <v>0.0005003616608554762</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>295.7629596666666</v>
+        <v>78.61383033333333</v>
       </c>
       <c r="H13">
-        <v>887.288879</v>
+        <v>235.841491</v>
       </c>
       <c r="I13">
-        <v>0.315802653370277</v>
+        <v>0.1338381158274765</v>
       </c>
       <c r="J13">
-        <v>0.315802653370277</v>
+        <v>0.1338381158274766</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1246,22 +1246,22 @@
         <v>0.165564</v>
       </c>
       <c r="O13">
-        <v>0.002698095800848445</v>
+        <v>0.001710955729118683</v>
       </c>
       <c r="P13">
-        <v>0.002698095800848445</v>
+        <v>0.001710955729118683</v>
       </c>
       <c r="Q13">
-        <v>16.322566218084</v>
+        <v>4.338540068435999</v>
       </c>
       <c r="R13">
-        <v>146.903095962756</v>
+        <v>39.046860615924</v>
       </c>
       <c r="S13">
-        <v>0.0008520658129551414</v>
+        <v>0.0002289910910494709</v>
       </c>
       <c r="T13">
-        <v>0.0008520658129551413</v>
+        <v>0.0002289910910494709</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>295.7629596666666</v>
+        <v>78.61383033333333</v>
       </c>
       <c r="H14">
-        <v>887.288879</v>
+        <v>235.841491</v>
       </c>
       <c r="I14">
-        <v>0.315802653370277</v>
+        <v>0.1338381158274765</v>
       </c>
       <c r="J14">
-        <v>0.315802653370277</v>
+        <v>0.1338381158274766</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.495919333333333</v>
+        <v>22.44608266666667</v>
       </c>
       <c r="N14">
-        <v>22.487758</v>
+        <v>67.33824799999999</v>
       </c>
       <c r="O14">
-        <v>0.3664693135602911</v>
+        <v>0.6958805126985015</v>
       </c>
       <c r="P14">
-        <v>0.3664693135602911</v>
+        <v>0.6958805126985015</v>
       </c>
       <c r="Q14">
-        <v>2217.015287449253</v>
+        <v>1764.572534405307</v>
       </c>
       <c r="R14">
-        <v>19953.13758704328</v>
+        <v>15881.15280964777</v>
       </c>
       <c r="S14">
-        <v>0.115731981601124</v>
+        <v>0.0931353366606258</v>
       </c>
       <c r="T14">
-        <v>0.115731981601124</v>
+        <v>0.09313533666062582</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,46 +1346,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>295.7629596666666</v>
+        <v>78.61383033333333</v>
       </c>
       <c r="H15">
-        <v>887.288879</v>
+        <v>235.841491</v>
       </c>
       <c r="I15">
-        <v>0.315802653370277</v>
+        <v>0.1338381158274765</v>
       </c>
       <c r="J15">
-        <v>0.315802653370277</v>
+        <v>0.1338381158274766</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.09296133333333334</v>
+        <v>0.104803</v>
       </c>
       <c r="N15">
-        <v>0.278884</v>
+        <v>0.314409</v>
       </c>
       <c r="O15">
-        <v>0.004544802912008758</v>
+        <v>0.003249135559883043</v>
       </c>
       <c r="P15">
-        <v>0.004544802912008757</v>
+        <v>0.003249135559883043</v>
       </c>
       <c r="Q15">
-        <v>27.49451908122622</v>
+        <v>8.238965260424335</v>
       </c>
       <c r="R15">
-        <v>247.450671731036</v>
+        <v>74.15068734381902</v>
       </c>
       <c r="S15">
-        <v>0.001435260818657327</v>
+        <v>0.0004348581814027995</v>
       </c>
       <c r="T15">
-        <v>0.001435260818657327</v>
+        <v>0.0004348581814027997</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>295.7629596666666</v>
+        <v>78.61383033333333</v>
       </c>
       <c r="H16">
-        <v>887.288879</v>
+        <v>235.841491</v>
       </c>
       <c r="I16">
-        <v>0.315802653370277</v>
+        <v>0.1338381158274765</v>
       </c>
       <c r="J16">
-        <v>0.315802653370277</v>
+        <v>0.1338381158274766</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>12.70442966666667</v>
+        <v>9.528993</v>
       </c>
       <c r="N16">
-        <v>38.113289</v>
+        <v>28.586979</v>
       </c>
       <c r="O16">
-        <v>0.6211090877692208</v>
+        <v>0.2954208372487103</v>
       </c>
       <c r="P16">
-        <v>0.6211090877692207</v>
+        <v>0.2954208372487104</v>
       </c>
       <c r="Q16">
-        <v>3757.499719090337</v>
+        <v>749.1106389495209</v>
       </c>
       <c r="R16">
-        <v>33817.49747181303</v>
+        <v>6741.995750545689</v>
       </c>
       <c r="S16">
-        <v>0.1961478979499122</v>
+        <v>0.03953856823354299</v>
       </c>
       <c r="T16">
-        <v>0.1961478979499121</v>
+        <v>0.039538568233543</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>186.7970273333333</v>
+        <v>120.7388203333334</v>
       </c>
       <c r="H17">
-        <v>560.391082</v>
+        <v>362.216461</v>
       </c>
       <c r="I17">
-        <v>0.1994536332069146</v>
+        <v>0.2055548769488429</v>
       </c>
       <c r="J17">
-        <v>0.1994536332069146</v>
+        <v>0.2055548769488429</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1488,28 +1488,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.1059273333333333</v>
+        <v>0.1205896666666667</v>
       </c>
       <c r="N17">
-        <v>0.317782</v>
+        <v>0.361769</v>
       </c>
       <c r="O17">
-        <v>0.005178699957631011</v>
+        <v>0.003738558763786432</v>
       </c>
       <c r="P17">
-        <v>0.005178699957631011</v>
+        <v>0.003738558763786432</v>
       </c>
       <c r="Q17">
-        <v>19.78691098001378</v>
+        <v>14.55985409772322</v>
       </c>
       <c r="R17">
-        <v>178.082198820124</v>
+        <v>131.038686879509</v>
       </c>
       <c r="S17">
-        <v>0.001032910521838</v>
+        <v>0.0007684789866561385</v>
       </c>
       <c r="T17">
-        <v>0.001032910521838</v>
+        <v>0.0007684789866561385</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>186.7970273333333</v>
+        <v>120.7388203333334</v>
       </c>
       <c r="H18">
-        <v>560.391082</v>
+        <v>362.216461</v>
       </c>
       <c r="I18">
-        <v>0.1994536332069146</v>
+        <v>0.2055548769488429</v>
       </c>
       <c r="J18">
-        <v>0.1994536332069146</v>
+        <v>0.2055548769488429</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1556,22 +1556,22 @@
         <v>0.165564</v>
       </c>
       <c r="O18">
-        <v>0.002698095800848445</v>
+        <v>0.001710955729118683</v>
       </c>
       <c r="P18">
-        <v>0.002698095800848445</v>
+        <v>0.001710955729118683</v>
       </c>
       <c r="Q18">
-        <v>10.308954344472</v>
+        <v>6.663334016556</v>
       </c>
       <c r="R18">
-        <v>92.78058910024799</v>
+        <v>59.970006149004</v>
       </c>
       <c r="S18">
-        <v>0.0005381450102195424</v>
+        <v>0.0003516952943639087</v>
       </c>
       <c r="T18">
-        <v>0.0005381450102195423</v>
+        <v>0.0003516952943639087</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>186.7970273333333</v>
+        <v>120.7388203333334</v>
       </c>
       <c r="H19">
-        <v>560.391082</v>
+        <v>362.216461</v>
       </c>
       <c r="I19">
-        <v>0.1994536332069146</v>
+        <v>0.2055548769488429</v>
       </c>
       <c r="J19">
-        <v>0.1994536332069146</v>
+        <v>0.2055548769488429</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>7.495919333333333</v>
+        <v>22.44608266666667</v>
       </c>
       <c r="N19">
-        <v>22.487758</v>
+        <v>67.33824799999999</v>
       </c>
       <c r="O19">
-        <v>0.3664693135602911</v>
+        <v>0.6958805126985015</v>
       </c>
       <c r="P19">
-        <v>0.3664693135602911</v>
+        <v>0.6958805126985015</v>
       </c>
       <c r="Q19">
-        <v>1400.215448597128</v>
+        <v>2710.113542277814</v>
       </c>
       <c r="R19">
-        <v>12601.93903737416</v>
+        <v>24391.02188050033</v>
       </c>
       <c r="S19">
-        <v>0.0730936360484441</v>
+        <v>0.1430416331588382</v>
       </c>
       <c r="T19">
-        <v>0.07309363604844409</v>
+        <v>0.1430416331588382</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,46 +1656,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>186.7970273333333</v>
+        <v>120.7388203333334</v>
       </c>
       <c r="H20">
-        <v>560.391082</v>
+        <v>362.216461</v>
       </c>
       <c r="I20">
-        <v>0.1994536332069146</v>
+        <v>0.2055548769488429</v>
       </c>
       <c r="J20">
-        <v>0.1994536332069146</v>
+        <v>0.2055548769488429</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.09296133333333334</v>
+        <v>0.104803</v>
       </c>
       <c r="N20">
-        <v>0.278884</v>
+        <v>0.314409</v>
       </c>
       <c r="O20">
-        <v>0.004544802912008758</v>
+        <v>0.003249135559883043</v>
       </c>
       <c r="P20">
-        <v>0.004544802912008757</v>
+        <v>0.003249135559883043</v>
       </c>
       <c r="Q20">
-        <v>17.36490072360978</v>
+        <v>12.65379058739434</v>
       </c>
       <c r="R20">
-        <v>156.284106512488</v>
+        <v>113.884115286549</v>
       </c>
       <c r="S20">
-        <v>0.0009064774530095124</v>
+        <v>0.0006678756602018688</v>
       </c>
       <c r="T20">
-        <v>0.0009064774530095121</v>
+        <v>0.0006678756602018689</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>186.7970273333333</v>
+        <v>120.7388203333334</v>
       </c>
       <c r="H21">
-        <v>560.391082</v>
+        <v>362.216461</v>
       </c>
       <c r="I21">
-        <v>0.1994536332069146</v>
+        <v>0.2055548769488429</v>
       </c>
       <c r="J21">
-        <v>0.1994536332069146</v>
+        <v>0.2055548769488429</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>12.70442966666667</v>
+        <v>9.528993</v>
       </c>
       <c r="N21">
-        <v>38.113289</v>
+        <v>28.586979</v>
       </c>
       <c r="O21">
-        <v>0.6211090877692208</v>
+        <v>0.2954208372487103</v>
       </c>
       <c r="P21">
-        <v>0.6211090877692207</v>
+        <v>0.2954208372487104</v>
       </c>
       <c r="Q21">
-        <v>2373.149695698744</v>
+        <v>1150.519373784591</v>
       </c>
       <c r="R21">
-        <v>21358.3472612887</v>
+        <v>10354.67436406132</v>
       </c>
       <c r="S21">
-        <v>0.1238824641734035</v>
+        <v>0.06072519384878281</v>
       </c>
       <c r="T21">
-        <v>0.1238824641734035</v>
+        <v>0.06072519384878282</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>150.2412563333334</v>
+        <v>96.09693533333332</v>
       </c>
       <c r="H22">
-        <v>450.7237690000001</v>
+        <v>288.290806</v>
       </c>
       <c r="I22">
-        <v>0.1604209920309976</v>
+        <v>0.1636026728029148</v>
       </c>
       <c r="J22">
-        <v>0.1604209920309976</v>
+        <v>0.1636026728029148</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1798,28 +1798,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.1059273333333333</v>
+        <v>0.1205896666666667</v>
       </c>
       <c r="N22">
-        <v>0.317782</v>
+        <v>0.361769</v>
       </c>
       <c r="O22">
-        <v>0.005178699957631011</v>
+        <v>0.003738558763786432</v>
       </c>
       <c r="P22">
-        <v>0.005178699957631011</v>
+        <v>0.003738558763786432</v>
       </c>
       <c r="Q22">
-        <v>15.91465564003978</v>
+        <v>11.58829739953489</v>
       </c>
       <c r="R22">
-        <v>143.231900760358</v>
+        <v>104.294676595814</v>
       </c>
       <c r="S22">
-        <v>0.0008307721846340522</v>
+        <v>0.0006116382061862212</v>
       </c>
       <c r="T22">
-        <v>0.0008307721846340521</v>
+        <v>0.0006116382061862214</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>150.2412563333334</v>
+        <v>96.09693533333332</v>
       </c>
       <c r="H23">
-        <v>450.7237690000001</v>
+        <v>288.290806</v>
       </c>
       <c r="I23">
-        <v>0.1604209920309976</v>
+        <v>0.1636026728029148</v>
       </c>
       <c r="J23">
-        <v>0.1604209920309976</v>
+        <v>0.1636026728029148</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1866,22 +1866,22 @@
         <v>0.165564</v>
       </c>
       <c r="O23">
-        <v>0.002698095800848445</v>
+        <v>0.001710955729118683</v>
       </c>
       <c r="P23">
-        <v>0.002698095800848445</v>
+        <v>0.001710955729118683</v>
       </c>
       <c r="Q23">
-        <v>8.291514454524</v>
+        <v>5.303397667175998</v>
       </c>
       <c r="R23">
-        <v>74.62363009071601</v>
+        <v>47.73057900458399</v>
       </c>
       <c r="S23">
-        <v>0.0004328312049667766</v>
+        <v>0.0002799169303312763</v>
       </c>
       <c r="T23">
-        <v>0.0004328312049667765</v>
+        <v>0.0002799169303312764</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>150.2412563333334</v>
+        <v>96.09693533333332</v>
       </c>
       <c r="H24">
-        <v>450.7237690000001</v>
+        <v>288.290806</v>
       </c>
       <c r="I24">
-        <v>0.1604209920309976</v>
+        <v>0.1636026728029148</v>
       </c>
       <c r="J24">
-        <v>0.1604209920309976</v>
+        <v>0.1636026728029148</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>7.495919333333333</v>
+        <v>22.44608266666667</v>
       </c>
       <c r="N24">
-        <v>22.487758</v>
+        <v>67.33824799999999</v>
       </c>
       <c r="O24">
-        <v>0.3664693135602911</v>
+        <v>0.6958805126985015</v>
       </c>
       <c r="P24">
-        <v>0.3664693135602911</v>
+        <v>0.6958805126985015</v>
       </c>
       <c r="Q24">
-        <v>1126.196338013322</v>
+        <v>2156.999754505321</v>
       </c>
       <c r="R24">
-        <v>10135.7670421199</v>
+        <v>19412.99779054788</v>
       </c>
       <c r="S24">
-        <v>0.05878937083026063</v>
+        <v>0.1138479118289375</v>
       </c>
       <c r="T24">
-        <v>0.05878937083026062</v>
+        <v>0.1138479118289375</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,46 +1966,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>150.2412563333334</v>
+        <v>96.09693533333332</v>
       </c>
       <c r="H25">
-        <v>450.7237690000001</v>
+        <v>288.290806</v>
       </c>
       <c r="I25">
-        <v>0.1604209920309976</v>
+        <v>0.1636026728029148</v>
       </c>
       <c r="J25">
-        <v>0.1604209920309976</v>
+        <v>0.1636026728029148</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.09296133333333334</v>
+        <v>0.104803</v>
       </c>
       <c r="N25">
-        <v>0.278884</v>
+        <v>0.314409</v>
       </c>
       <c r="O25">
-        <v>0.004544802912008758</v>
+        <v>0.003249135559883043</v>
       </c>
       <c r="P25">
-        <v>0.004544802912008757</v>
+        <v>0.003249135559883043</v>
       </c>
       <c r="Q25">
-        <v>13.96662751042178</v>
+        <v>10.07124711373933</v>
       </c>
       <c r="R25">
-        <v>125.699647593796</v>
+        <v>90.641224023654</v>
       </c>
       <c r="S25">
-        <v>0.0007290817917298118</v>
+        <v>0.0005315672618958607</v>
       </c>
       <c r="T25">
-        <v>0.0007290817917298116</v>
+        <v>0.0005315672618958609</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>150.2412563333334</v>
+        <v>96.09693533333332</v>
       </c>
       <c r="H26">
-        <v>450.7237690000001</v>
+        <v>288.290806</v>
       </c>
       <c r="I26">
-        <v>0.1604209920309976</v>
+        <v>0.1636026728029148</v>
       </c>
       <c r="J26">
-        <v>0.1604209920309976</v>
+        <v>0.1636026728029148</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>12.70442966666667</v>
+        <v>9.528993</v>
       </c>
       <c r="N26">
-        <v>38.113289</v>
+        <v>28.586979</v>
       </c>
       <c r="O26">
-        <v>0.6211090877692208</v>
+        <v>0.2954208372487103</v>
       </c>
       <c r="P26">
-        <v>0.6211090877692207</v>
+        <v>0.2954208372487104</v>
       </c>
       <c r="Q26">
-        <v>1908.729474118472</v>
+        <v>915.7070241127858</v>
       </c>
       <c r="R26">
-        <v>17178.56526706625</v>
+        <v>8241.363217015074</v>
       </c>
       <c r="S26">
-        <v>0.09963893601940638</v>
+        <v>0.04833163857556389</v>
       </c>
       <c r="T26">
-        <v>0.09963893601940635</v>
+        <v>0.04833163857556391</v>
       </c>
     </row>
   </sheetData>
